--- a/data_year/zb/能源/主要高耗能产品的进、出口量.xlsx
+++ b/data_year/zb/能源/主要高耗能产品的进、出口量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,958 +503,558 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5592</v>
+        <v>17398</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>1616</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="E2" t="n">
-        <v>335</v>
+        <v>1137</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>1189</v>
+        <v>718</v>
       </c>
       <c r="H2" t="n">
-        <v>621</v>
+        <v>4256</v>
       </c>
       <c r="I2" t="n">
-        <v>1596</v>
+        <v>1643</v>
       </c>
       <c r="J2" t="n">
-        <v>81.21259999999999</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>144484</v>
+        <v>508580</v>
       </c>
       <c r="L2" t="n">
-        <v>91.40989999999999</v>
+        <v>36</v>
       </c>
       <c r="M2" t="n">
-        <v>130052</v>
+        <v>2180000</v>
       </c>
       <c r="N2" t="n">
-        <v>593336</v>
+        <v>43395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6123</v>
+        <v>18726</v>
       </c>
       <c r="C3" t="n">
-        <v>621</v>
+        <v>1061</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="E3" t="n">
-        <v>490</v>
+        <v>1445</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>1092</v>
+        <v>795</v>
       </c>
       <c r="H3" t="n">
-        <v>474</v>
+        <v>4888</v>
       </c>
       <c r="I3" t="n">
-        <v>1722</v>
+        <v>1558</v>
       </c>
       <c r="J3" t="n">
-        <v>95.41670000000001</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>123790</v>
+        <v>500347</v>
       </c>
       <c r="L3" t="n">
-        <v>52.9419</v>
+        <v>33</v>
       </c>
       <c r="M3" t="n">
-        <v>135630</v>
+        <v>3000000</v>
       </c>
       <c r="N3" t="n">
-        <v>562021</v>
+        <v>48369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11359</v>
+        <v>17632</v>
       </c>
       <c r="C4" t="n">
-        <v>518</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="E4" t="n">
-        <v>526</v>
+        <v>1646</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>1682</v>
+        <v>843</v>
       </c>
       <c r="H4" t="n">
-        <v>545</v>
+        <v>5573</v>
       </c>
       <c r="I4" t="n">
-        <v>2449</v>
+        <v>1366</v>
       </c>
       <c r="J4" t="n">
-        <v>133.0146</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>171710</v>
+        <v>492980</v>
       </c>
       <c r="L4" t="n">
-        <v>58.1757</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>188744</v>
+        <v>2830000</v>
       </c>
       <c r="N4" t="n">
-        <v>495987</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12427</v>
+        <v>19546</v>
       </c>
       <c r="C5" t="n">
-        <v>533</v>
+        <v>1454</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>565</v>
       </c>
       <c r="E5" t="n">
-        <v>603</v>
+        <v>1685</v>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>1213</v>
+        <v>793</v>
       </c>
       <c r="H5" t="n">
-        <v>696</v>
+        <v>6234</v>
       </c>
       <c r="I5" t="n">
-        <v>3717</v>
+        <v>1408</v>
       </c>
       <c r="J5" t="n">
-        <v>156.2151</v>
+        <v>389</v>
       </c>
       <c r="K5" t="n">
-        <v>232879</v>
+        <v>489000</v>
       </c>
       <c r="L5" t="n">
-        <v>88.0735</v>
+        <v>48</v>
       </c>
       <c r="M5" t="n">
-        <v>273874</v>
+        <v>3070000</v>
       </c>
       <c r="N5" t="n">
-        <v>484231</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14464</v>
+        <v>21896</v>
       </c>
       <c r="C6" t="n">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>630</v>
       </c>
       <c r="E6" t="n">
-        <v>732</v>
+        <v>1796</v>
       </c>
       <c r="F6" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>1240</v>
+        <v>959</v>
       </c>
       <c r="H6" t="n">
-        <v>1423</v>
+        <v>9378</v>
       </c>
       <c r="I6" t="n">
-        <v>2930</v>
+        <v>1443</v>
       </c>
       <c r="J6" t="n">
-        <v>138.1112</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>390023</v>
+        <v>507858</v>
       </c>
       <c r="L6" t="n">
-        <v>103.3422</v>
+        <v>35</v>
       </c>
       <c r="M6" t="n">
-        <v>430988</v>
+        <v>3670000</v>
       </c>
       <c r="N6" t="n">
-        <v>263149</v>
+        <v>132719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19925</v>
+        <v>21460</v>
       </c>
       <c r="C7" t="n">
-        <v>2216</v>
+        <v>1575</v>
       </c>
       <c r="D7" t="n">
-        <v>167</v>
+        <v>593</v>
       </c>
       <c r="E7" t="n">
-        <v>759</v>
+        <v>1984</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>1397</v>
+        <v>1116</v>
       </c>
       <c r="H7" t="n">
-        <v>2052</v>
+        <v>11240</v>
       </c>
       <c r="I7" t="n">
-        <v>2582</v>
+        <v>1278</v>
       </c>
       <c r="J7" t="n">
-        <v>141.5057</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>463560</v>
+        <v>466077</v>
       </c>
       <c r="L7" t="n">
-        <v>63.6951</v>
+        <v>22</v>
       </c>
       <c r="M7" t="n">
-        <v>711484</v>
+        <v>4200000</v>
       </c>
       <c r="N7" t="n">
-        <v>146845</v>
+        <v>96683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26433</v>
+        <v>22661</v>
       </c>
       <c r="C8" t="n">
-        <v>3613</v>
+        <v>1785</v>
       </c>
       <c r="D8" t="n">
-        <v>305</v>
+        <v>683</v>
       </c>
       <c r="E8" t="n">
-        <v>796</v>
+        <v>2107</v>
       </c>
       <c r="F8" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>1129</v>
+        <v>832</v>
       </c>
       <c r="H8" t="n">
-        <v>4301</v>
+        <v>10853</v>
       </c>
       <c r="I8" t="n">
-        <v>1851</v>
+        <v>1322</v>
       </c>
       <c r="J8" t="n">
-        <v>96.9349</v>
+        <v>439</v>
       </c>
       <c r="K8" t="n">
-        <v>559122</v>
+        <v>452313</v>
       </c>
       <c r="L8" t="n">
-        <v>51.195</v>
+        <v>25.5635</v>
       </c>
       <c r="M8" t="n">
-        <v>1240157</v>
+        <v>4070000</v>
       </c>
       <c r="N8" t="n">
-        <v>341465</v>
+        <v>22642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30917</v>
+        <v>21032</v>
       </c>
       <c r="C9" t="n">
-        <v>3301</v>
+        <v>1286</v>
       </c>
       <c r="D9" t="n">
-        <v>422</v>
+        <v>652</v>
       </c>
       <c r="E9" t="n">
-        <v>847</v>
+        <v>2372</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>1169</v>
+        <v>918</v>
       </c>
       <c r="H9" t="n">
-        <v>6265</v>
+        <v>7541</v>
       </c>
       <c r="I9" t="n">
-        <v>1687</v>
+        <v>1330</v>
       </c>
       <c r="J9" t="n">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="K9" t="n">
-        <v>499678</v>
+        <v>477898</v>
       </c>
       <c r="L9" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M9" t="n">
-        <v>1853413</v>
+        <v>4240000</v>
       </c>
       <c r="N9" t="n">
-        <v>276714</v>
+        <v>16445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27762</v>
+        <v>19347</v>
       </c>
       <c r="C10" t="n">
-        <v>2604</v>
+        <v>904</v>
       </c>
       <c r="D10" t="n">
-        <v>361</v>
+        <v>565</v>
       </c>
       <c r="E10" t="n">
-        <v>952</v>
+        <v>2479</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>622</v>
+        <v>950</v>
       </c>
       <c r="H10" t="n">
-        <v>5923</v>
+        <v>6933</v>
       </c>
       <c r="I10" t="n">
-        <v>1543</v>
+        <v>1317</v>
       </c>
       <c r="J10" t="n">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="K10" t="n">
-        <v>517522</v>
+        <v>509868</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
-        <v>1900000</v>
+        <v>5230000</v>
       </c>
       <c r="N10" t="n">
-        <v>71320</v>
+        <v>24283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16643</v>
+        <v>18822</v>
       </c>
       <c r="C11" t="n">
-        <v>1561</v>
+        <v>552.58</v>
       </c>
       <c r="D11" t="n">
-        <v>362</v>
+        <v>628.74</v>
       </c>
       <c r="E11" t="n">
-        <v>1368</v>
+        <v>2718.04</v>
       </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>42.34</v>
       </c>
       <c r="G11" t="n">
-        <v>411</v>
+        <v>1110.73</v>
       </c>
       <c r="H11" t="n">
-        <v>2460</v>
+        <v>6429.37</v>
       </c>
       <c r="I11" t="n">
-        <v>1763</v>
+        <v>1230.41</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>447.622381</v>
       </c>
       <c r="K11" t="n">
-        <v>455136</v>
+        <v>524233.33</v>
       </c>
       <c r="L11" t="n">
-        <v>174</v>
+        <v>29.122414</v>
       </c>
       <c r="M11" t="n">
-        <v>1390000</v>
+        <v>5148423.73</v>
       </c>
       <c r="N11" t="n">
-        <v>29287</v>
+        <v>64039.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17398</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1616</v>
-      </c>
-      <c r="D12" t="n">
-        <v>380</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1137</v>
-      </c>
-      <c r="F12" t="n">
-        <v>37</v>
-      </c>
+        <v>3050</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>718</v>
+        <v>1060</v>
       </c>
       <c r="H12" t="n">
-        <v>4256</v>
+        <v>5367</v>
       </c>
       <c r="I12" t="n">
-        <v>1643</v>
+        <v>2023</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>668</v>
       </c>
       <c r="K12" t="n">
-        <v>508580</v>
+        <v>744434</v>
       </c>
       <c r="L12" t="n">
-        <v>36</v>
+        <v>270.5008925</v>
       </c>
       <c r="M12" t="n">
-        <v>2180000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>43395</v>
-      </c>
+        <v>4860000</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18726</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D13" t="n">
-        <v>450</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1445</v>
-      </c>
-      <c r="F13" t="n">
-        <v>35</v>
-      </c>
+        <v>2969</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>795</v>
+        <v>909</v>
       </c>
       <c r="H13" t="n">
-        <v>4888</v>
+        <v>6686</v>
       </c>
       <c r="I13" t="n">
-        <v>1558</v>
-      </c>
-      <c r="J13" t="n">
-        <v>329</v>
-      </c>
-      <c r="K13" t="n">
-        <v>500347</v>
-      </c>
-      <c r="L13" t="n">
-        <v>33</v>
-      </c>
+        <v>1427</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>48369</v>
-      </c>
+        <v>5619074</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>17632</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D14" t="n">
-        <v>471</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>1646</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33</v>
-      </c>
-      <c r="G14" t="n">
-        <v>843</v>
-      </c>
+        <v>2916</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>5573</v>
+        <v>6732</v>
       </c>
       <c r="I14" t="n">
-        <v>1366</v>
-      </c>
-      <c r="J14" t="n">
-        <v>398</v>
-      </c>
-      <c r="K14" t="n">
-        <v>492980</v>
-      </c>
-      <c r="L14" t="n">
-        <v>64</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2830000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7937</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>19506</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1454</v>
-      </c>
-      <c r="D15" t="n">
-        <v>565</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1685</v>
-      </c>
-      <c r="F15" t="n">
-        <v>38</v>
-      </c>
-      <c r="G15" t="n">
-        <v>793</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6233</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1408</v>
-      </c>
-      <c r="J15" t="n">
-        <v>389</v>
-      </c>
-      <c r="K15" t="n">
-        <v>488978</v>
-      </c>
-      <c r="L15" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3070000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21896.1924</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1390.7776151</v>
-      </c>
-      <c r="D16" t="n">
-        <v>630.2003406</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1796.4210798</v>
-      </c>
-      <c r="F16" t="n">
-        <v>34.0257014</v>
-      </c>
-      <c r="G16" t="n">
-        <v>958.7486897</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9377.7561694</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1443.2494359</v>
-      </c>
-      <c r="J16" t="n">
-        <v>422</v>
-      </c>
-      <c r="K16" t="n">
-        <v>507857.533</v>
-      </c>
-      <c r="L16" t="n">
-        <v>35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3668647.7</v>
-      </c>
-      <c r="N16" t="n">
-        <v>132719</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>21459.9756</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1575.2867191</v>
-      </c>
-      <c r="D17" t="n">
-        <v>593.4441762</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1983.9942285</v>
-      </c>
-      <c r="F17" t="n">
-        <v>33.9549329</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1116.4875669</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11239.5643132</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1278.2444391</v>
-      </c>
-      <c r="J17" t="n">
-        <v>425</v>
-      </c>
-      <c r="K17" t="n">
-        <v>466076.628</v>
-      </c>
-      <c r="L17" t="n">
-        <v>22</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4195160.278</v>
-      </c>
-      <c r="N17" t="n">
-        <v>96683</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>22661</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1785</v>
-      </c>
-      <c r="D18" t="n">
-        <v>683</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2107</v>
-      </c>
-      <c r="F18" t="n">
-        <v>32</v>
-      </c>
-      <c r="G18" t="n">
-        <v>832</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10853</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1322</v>
-      </c>
-      <c r="J18" t="n">
-        <v>439</v>
-      </c>
-      <c r="K18" t="n">
-        <v>452313</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4070000</v>
-      </c>
-      <c r="N18" t="n">
-        <v>22642</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>21032</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D19" t="n">
-        <v>652</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2372</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" t="n">
-        <v>918</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7541</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1330</v>
-      </c>
-      <c r="J19" t="n">
-        <v>411</v>
-      </c>
-      <c r="K19" t="n">
-        <v>477989</v>
-      </c>
-      <c r="L19" t="n">
-        <v>18.6181</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4240000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16445</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19347</v>
-      </c>
-      <c r="C20" t="n">
-        <v>904</v>
-      </c>
-      <c r="D20" t="n">
-        <v>565</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2479</v>
-      </c>
-      <c r="F20" t="n">
-        <v>45</v>
-      </c>
-      <c r="G20" t="n">
-        <v>950</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6933</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1317</v>
-      </c>
-      <c r="J20" t="n">
-        <v>475</v>
-      </c>
-      <c r="K20" t="n">
-        <v>509868</v>
-      </c>
-      <c r="L20" t="n">
-        <v>19.9306</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5230000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>24283</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18822</v>
-      </c>
-      <c r="C21" t="n">
-        <v>552.5841609</v>
-      </c>
-      <c r="D21" t="n">
-        <v>628.7446533999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2718.0369127</v>
-      </c>
-      <c r="F21" t="n">
-        <v>42.3387982</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1110.725361</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6429.3712178</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1230.4075264</v>
-      </c>
-      <c r="J21" t="n">
-        <v>447.6223808</v>
-      </c>
-      <c r="K21" t="n">
-        <v>524233.33</v>
-      </c>
-      <c r="L21" t="n">
-        <v>29.1224142</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5148423.726</v>
-      </c>
-      <c r="N21" t="n">
-        <v>64039.528</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>312.7901973</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>3050.4584644</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>1060.1126853</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5367.2016927</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2023.060991</v>
-      </c>
-      <c r="J22" t="n">
-        <v>668.1122271</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>270.5008925</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4856418.709</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>1057</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
